--- a/2017年上半年个人周报.xlsx
+++ b/2017年上半年个人周报.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="65">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -241,6 +241,67 @@
   </si>
   <si>
     <t>WPF列表矩阵控件封装:支持多样式多页列表显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sqlite 
+  实现Log4Net+Sqlite记录客户端日志;
+  日志类型需先定义好,比如 Main,Net等,就是数据库表名;
+  日志内容(Id,Time,Level,Message,StackTrace);
+  日志db文件按月保存,每月一份;
+  https://github.com/cailin0630/ICare.Logger</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MongoDB 
+  熟悉 安装-&gt; 启动-&gt; 连接-&gt; 操作;
+  熟悉MongoDB Compass图形界面管理工具;
+  尝试实现用Log4Net+MongoDB记录客户端日志;
+  https://github.com/cailin0630/ICare.Logger</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习 MVC+SignalR
+  SignalR 是ASP.NET的一个库，可以简化开发人员将实时Web功能添加到应用程序的过程:当所连接的客户端变得可用时,服务器代码可以立即向其推送内容，而不是让服务器等待客户端请求新的数据。
+  https://github.com/cailin0630/MVCAppSignalR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习体验 Syncfusion Control Panel
+  提供了大量的WPF控件设计例子(源码,Demo);
+  可以为后面客户端开发WPF控件提供参考;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习体验 Metro Studio
+  提供了大量WPF图形设计的源码(Path实现);
+  https://www.syncfusion.com/downloads/metrostudio</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">模糊图像处理系统
+  熟悉代码结构和主要功能;
+  修复"人脸清晰化功能由于图像大小图像处理后图像信息未更新"的bug,完成;
+  修改"按照轨道中选中的图片向后进行拼贴",未完成,目前代码结构改不动;
+  添加"主窗体标题",默认为 模糊图像处理系统,可通过配置文件配置;
+  修改"矩形选中框的坐标在每帧里不变"的bug,未完成,由于算法返回数据错误;
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续熟悉代码;优化和解决bug</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5463,10 +5524,10 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
+      <selection pane="bottomRight" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5616,7 +5677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="52" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" s="52" customFormat="1" ht="215.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="62">
         <v>1</v>
       </c>
@@ -5637,11 +5698,15 @@
         <v>50</v>
       </c>
       <c r="N6" s="12"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="11"/>
+      <c r="O6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="Q6" s="12"/>
     </row>
-    <row r="7" spans="1:17" s="52" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" s="52" customFormat="1" ht="161.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="62">
         <v>2</v>
       </c>
@@ -5662,11 +5727,15 @@
         <v>51</v>
       </c>
       <c r="N7" s="12"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="11"/>
+      <c r="O7" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="Q7" s="12"/>
     </row>
-    <row r="8" spans="1:17" s="52" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" s="52" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="62">
         <v>3</v>
       </c>
@@ -5687,11 +5756,15 @@
         <v>51</v>
       </c>
       <c r="N8" s="12"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="11"/>
+      <c r="O8" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="Q8" s="12"/>
     </row>
-    <row r="9" spans="1:17" ht="145.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>4</v>
       </c>
@@ -5712,11 +5785,15 @@
         <v>51</v>
       </c>
       <c r="N9" s="12"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="11"/>
+      <c r="O9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="Q9" s="12"/>
     </row>
-    <row r="10" spans="1:17" ht="89.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="117" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>5</v>
       </c>
@@ -5739,11 +5816,15 @@
       <c r="N10" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="O10" s="13"/>
-      <c r="P10" s="11"/>
+      <c r="O10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="Q10" s="12"/>
     </row>
-    <row r="11" spans="1:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" ht="251.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <v>6</v>
       </c>
@@ -5764,9 +5845,15 @@
         <v>51</v>
       </c>
       <c r="N11" s="12"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="12"/>
+      <c r="O11" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="12" spans="1:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
